--- a/Symphony/NOVEMBER/20.11.2021/MC Bank Statement November-2021.xlsx
+++ b/Symphony/NOVEMBER/20.11.2021/MC Bank Statement November-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -5033,8 +5033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9523,11 +9523,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9542,6 +9537,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9555,8 +9555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A104" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -11798,14 +11798,14 @@
         <v>476060</v>
       </c>
       <c r="C21" s="62">
-        <v>505040</v>
+        <v>504940</v>
       </c>
       <c r="D21" s="59">
         <v>2610</v>
       </c>
       <c r="E21" s="59">
         <f t="shared" si="1"/>
-        <v>507650</v>
+        <v>507550</v>
       </c>
       <c r="F21" s="249"/>
       <c r="G21" s="269">
@@ -13034,7 +13034,7 @@
       </c>
       <c r="C33" s="295">
         <f>SUM(C5:C32)</f>
-        <v>7426010</v>
+        <v>7425910</v>
       </c>
       <c r="D33" s="294">
         <f>SUM(D5:D32)</f>
@@ -13042,11 +13042,11 @@
       </c>
       <c r="E33" s="294">
         <f>SUM(E5:E32)</f>
-        <v>7467740</v>
+        <v>7467640</v>
       </c>
       <c r="F33" s="294">
         <f>B33-E33</f>
-        <v>-195080</v>
+        <v>-194980</v>
       </c>
       <c r="G33" s="296"/>
       <c r="H33" s="152"/>
@@ -13790,7 +13790,7 @@
         <v>146</v>
       </c>
       <c r="D40" s="224">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E40" s="189" t="s">
         <v>198</v>
@@ -22595,7 +22595,7 @@
       <c r="C119" s="354"/>
       <c r="D119" s="230">
         <f>SUM(D37:D118)</f>
-        <v>1988841</v>
+        <v>1988941</v>
       </c>
       <c r="E119" s="222"/>
       <c r="F119" s="151"/>
@@ -22802,7 +22802,7 @@
       <c r="C121" s="342"/>
       <c r="D121" s="230">
         <f>D119+M121</f>
-        <v>1988841</v>
+        <v>1988941</v>
       </c>
       <c r="E121" s="222"/>
       <c r="F121" s="151"/>
@@ -34034,8 +34034,8 @@
   </sheetPr>
   <dimension ref="A1:AC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34231,7 +34231,7 @@
         <v>78</v>
       </c>
       <c r="E7" s="274">
-        <v>617093.82349523529</v>
+        <v>616993.82349523529</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="301"/>
@@ -34332,7 +34332,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="273">
-        <v>1988841</v>
+        <v>1988941</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="258"/>
